--- a/Burn.xlsx
+++ b/Burn.xlsx
@@ -24,6 +24,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>实际故事点</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu shi dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划故事点</t>
+    <rPh sb="0" eb="1">
+      <t>ji hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu shi dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,202 +376,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
+      <c r="C15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>48</v>
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Burn.xlsx
+++ b/Burn.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,215 +450,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>56</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burn.xlsx
+++ b/Burn.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,6 +450,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burn.xlsx
+++ b/Burn.xlsx
@@ -376,11 +376,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -461,6 +459,72 @@
         <v>70</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burn.xlsx
+++ b/Burn.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +525,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
